--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang9/1.XuLyBH/XLBH2309_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang9/1.XuLyBH/XLBH2309_KimLong.xlsx
@@ -621,6 +621,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,30 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1002,41 +1002,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -1069,57 +1069,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="57" t="s">
+      <c r="K4" s="59"/>
+      <c r="L4" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="59" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -1150,16 +1150,16 @@
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="64"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
       <c r="R6" s="44"/>
       <c r="S6" s="45"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="51" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1252,7 +1252,7 @@
       <c r="R7" s="44"/>
       <c r="S7" s="45"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="R10" s="44"/>
       <c r="S10" s="45"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="R11" s="44"/>
       <c r="S11" s="45"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="R12" s="44"/>
       <c r="S12" s="45"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="51" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="52"/>
       <c r="V13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="R14" s="44"/>
       <c r="S14" s="45"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="52"/>
       <c r="V14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S15" s="45"/>
       <c r="T15" s="49"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="53"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3349,13 +3349,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3367,6 +3360,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
